--- a/Optimization/Gurobi/5 districts/Excel files/11-D to I.xlsx
+++ b/Optimization/Gurobi/5 districts/Excel files/11-D to I.xlsx
@@ -340,12 +340,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>55</v>
+      </c>
+      <c r="C1">
+        <v>2240</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Optimization/Gurobi/5 districts/Excel files/11-D to I.xlsx
+++ b/Optimization/Gurobi/5 districts/Excel files/11-D to I.xlsx
@@ -340,24 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
-        <v>4</v>
-      </c>
-      <c r="B1">
-        <v>55</v>
-      </c>
-      <c r="C1">
-        <v>2240</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Optimization/Gurobi/5 districts/Excel files/11-D to I.xlsx
+++ b/Optimization/Gurobi/5 districts/Excel files/11-D to I.xlsx
@@ -340,12 +340,662 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>51</v>
+      </c>
+      <c r="C42">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>55</v>
+      </c>
+      <c r="C45">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>56</v>
+      </c>
+      <c r="C46">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>57</v>
+      </c>
+      <c r="C47">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>58</v>
+      </c>
+      <c r="C48">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>41</v>
+      </c>
+      <c r="C49">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>42</v>
+      </c>
+      <c r="C50">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>43</v>
+      </c>
+      <c r="C51">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>44</v>
+      </c>
+      <c r="C52">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>45</v>
+      </c>
+      <c r="C53">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>46</v>
+      </c>
+      <c r="C54">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>47</v>
+      </c>
+      <c r="C55">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>48</v>
+      </c>
+      <c r="C56">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>49</v>
+      </c>
+      <c r="C57">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>54</v>
+      </c>
+      <c r="C59">
+        <v>672</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>